--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H2">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>1150.74751282638</v>
+        <v>2.063153084158222</v>
       </c>
       <c r="R2">
-        <v>10356.72761543742</v>
+        <v>18.568377757424</v>
       </c>
       <c r="S2">
-        <v>0.08517556921116827</v>
+        <v>0.0004071587870307206</v>
       </c>
       <c r="T2">
-        <v>0.08517556921116826</v>
+        <v>0.0004071587870307206</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H3">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>3359.847990526335</v>
+        <v>5.416840834885333</v>
       </c>
       <c r="R3">
-        <v>30238.63191473702</v>
+        <v>48.751567513968</v>
       </c>
       <c r="S3">
-        <v>0.2486878849324592</v>
+        <v>0.001069001791871518</v>
       </c>
       <c r="T3">
-        <v>0.2486878849324592</v>
+        <v>0.001069001791871518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H4">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>303.6652488444751</v>
+        <v>0.3887976128035556</v>
       </c>
       <c r="R4">
-        <v>2732.987239600275</v>
+        <v>3.499178515232</v>
       </c>
       <c r="S4">
-        <v>0.02247657295078734</v>
+        <v>7.672836574515445E-05</v>
       </c>
       <c r="T4">
-        <v>0.02247657295078733</v>
+        <v>7.672836574515445E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H5">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>92.83354815220498</v>
+        <v>0.1463565347128889</v>
       </c>
       <c r="R5">
-        <v>835.5019333698449</v>
+        <v>1.317208812416</v>
       </c>
       <c r="S5">
-        <v>0.006871316442245012</v>
+        <v>2.888314473864289E-05</v>
       </c>
       <c r="T5">
-        <v>0.006871316442245012</v>
+        <v>2.888314473864289E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J6">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>30.38987013399645</v>
+        <v>33.79510554105644</v>
       </c>
       <c r="R6">
-        <v>273.508831205968</v>
+        <v>304.155949869508</v>
       </c>
       <c r="S6">
-        <v>0.002249385254423894</v>
+        <v>0.006669390790885433</v>
       </c>
       <c r="T6">
-        <v>0.002249385254423893</v>
+        <v>0.006669390790885433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J7">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
-        <v>88.72958052395066</v>
+        <v>88.72958052395067</v>
       </c>
       <c r="R7">
-        <v>798.5662247155559</v>
+        <v>798.566224715556</v>
       </c>
       <c r="S7">
-        <v>0.006567550607546649</v>
+        <v>0.01751059029854609</v>
       </c>
       <c r="T7">
-        <v>0.006567550607546647</v>
+        <v>0.01751059029854609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J8">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>8.019437255984446</v>
+        <v>6.368628900927113</v>
       </c>
       <c r="R8">
-        <v>72.17493530386</v>
+        <v>57.31766010834401</v>
       </c>
       <c r="S8">
-        <v>0.0005935794997757964</v>
+        <v>0.001256835102669199</v>
       </c>
       <c r="T8">
-        <v>0.0005935794997757962</v>
+        <v>0.001256835102669199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J9">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>2.451623350020888</v>
+        <v>2.397366717585778</v>
       </c>
       <c r="R9">
-        <v>22.064610150188</v>
+        <v>21.576300458272</v>
       </c>
       <c r="S9">
-        <v>0.0001814632766978885</v>
+        <v>0.0004731151228161546</v>
       </c>
       <c r="T9">
-        <v>0.0001814632766978885</v>
+        <v>0.0004731151228161547</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H10">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>275.46817051676</v>
+        <v>52.2388208832221</v>
       </c>
       <c r="R10">
-        <v>2479.21353465084</v>
+        <v>470.1493879489989</v>
       </c>
       <c r="S10">
-        <v>0.02038949288336565</v>
+        <v>0.01030921801685203</v>
       </c>
       <c r="T10">
-        <v>0.02038949288336564</v>
+        <v>0.01030921801685204</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H11">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>804.2869255406699</v>
+        <v>137.1538449081937</v>
       </c>
       <c r="R11">
-        <v>7238.58232986603</v>
+        <v>1234.384604173743</v>
       </c>
       <c r="S11">
-        <v>0.05953138801383872</v>
+        <v>0.02706701386252398</v>
       </c>
       <c r="T11">
-        <v>0.05953138801383871</v>
+        <v>0.02706701386252398</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H12">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>72.69197596895</v>
+        <v>9.844315000675778</v>
       </c>
       <c r="R12">
-        <v>654.2277837205501</v>
+        <v>88.598835006082</v>
       </c>
       <c r="S12">
-        <v>0.005380485607162065</v>
+        <v>0.001942754217125311</v>
       </c>
       <c r="T12">
-        <v>0.005380485607162065</v>
+        <v>0.001942754217125311</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H13">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>22.22267472841</v>
+        <v>3.705732192468444</v>
       </c>
       <c r="R13">
-        <v>200.00407255569</v>
+        <v>33.351589732216</v>
       </c>
       <c r="S13">
-        <v>0.001644869051020532</v>
+        <v>0.000731318211979288</v>
       </c>
       <c r="T13">
-        <v>0.001644869051020532</v>
+        <v>0.0007313182119792882</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H14">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>1711.653184318128</v>
+        <v>1216.233106870711</v>
       </c>
       <c r="R14">
-        <v>15404.87865886315</v>
+        <v>10946.0979618364</v>
       </c>
       <c r="S14">
-        <v>0.126692460892941</v>
+        <v>0.2400209661330719</v>
       </c>
       <c r="T14">
-        <v>0.126692460892941</v>
+        <v>0.2400209661330719</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H15">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>4997.529386515333</v>
+        <v>3193.239129283867</v>
       </c>
       <c r="R15">
-        <v>44977.76447863799</v>
+        <v>28739.15216355479</v>
       </c>
       <c r="S15">
-        <v>0.3699051315787696</v>
+        <v>0.6301788173458414</v>
       </c>
       <c r="T15">
-        <v>0.3699051315787695</v>
+        <v>0.6301788173458415</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H16">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>451.6799596418707</v>
+        <v>229.1970150905778</v>
       </c>
       <c r="R16">
-        <v>4065.119636776836</v>
+        <v>2062.7731358152</v>
       </c>
       <c r="S16">
-        <v>0.03343226662231192</v>
+        <v>0.04523153389435294</v>
       </c>
       <c r="T16">
-        <v>0.03343226662231191</v>
+        <v>0.04523153389435294</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H17">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>138.0831472891881</v>
+        <v>86.27748677084443</v>
       </c>
       <c r="R17">
-        <v>1242.748325602693</v>
+        <v>776.4973809375999</v>
       </c>
       <c r="S17">
-        <v>0.01022058317548646</v>
+        <v>0.01702667491395034</v>
       </c>
       <c r="T17">
-        <v>0.01022058317548646</v>
+        <v>0.01702667491395034</v>
       </c>
     </row>
   </sheetData>
